--- a/PTBR/Lang/PTBR/Game/Thing.xlsx
+++ b/PTBR/Lang/PTBR/Game/Thing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91E569-0E1A-40C8-93F6-F135C6CFA29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A485B02-9568-4B2A-B121-3C780237A5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17958" uniqueCount="8199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17990" uniqueCount="8221">
   <si>
     <t>id</t>
   </si>
@@ -24633,6 +24633,72 @@
   </si>
   <si>
     <t>"Dizem que este é um cajado que pertenceu a um mago do passado que ansiava pela destruição. Eu costumava zombar de como poderia existir alguém tão tolo no mundo, mas agora estou começando a entendê-lo um pouco. Ele também deve ter perdido muito."</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>EA 23.254</t>
+  </si>
+  <si>
+    <t>gate pine</t>
+  </si>
+  <si>
+    <t>門松</t>
+  </si>
+  <si>
+    <t>statue_gargoyle</t>
+  </si>
+  <si>
+    <t>EA 23.255</t>
+  </si>
+  <si>
+    <t>gargoyle</t>
+  </si>
+  <si>
+    <t>ガーゴイル像</t>
+  </si>
+  <si>
+    <t>obj_fake</t>
+  </si>
+  <si>
+    <t>fake object</t>
+  </si>
+  <si>
+    <t>フェイクオブジェ</t>
+  </si>
+  <si>
+    <t>unicorn_horn</t>
+  </si>
+  <si>
+    <t>unicorn horn</t>
+  </si>
+  <si>
+    <t>ユニコーンの角</t>
+  </si>
+  <si>
+    <t>A rare unicorn horn, said to possess the power to cure ailments.</t>
+  </si>
+  <si>
+    <t>ユニコーンの希少な角。状態異常を治癒する力を持つとされている。</t>
+  </si>
+  <si>
+    <t>Kadomatsu</t>
+  </si>
+  <si>
+    <t>Estátua de Gárgula</t>
+  </si>
+  <si>
+    <t>Item Falso</t>
+  </si>
+  <si>
+    <t>Chifre de Unicórnio</t>
+  </si>
+  <si>
+    <t>Este é um raro chifre de unicórnio. Possui o poder de curar condições anormais.</t>
+  </si>
+  <si>
+    <t>un.</t>
   </si>
 </sst>
 </file>
@@ -25013,11 +25079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2408"/>
+  <dimension ref="A1:U2412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2288" sqref="G2288"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A2380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S2411" sqref="S2411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -83730,6 +83796,110 @@
         <v>928</v>
       </c>
     </row>
+    <row r="2409" spans="1:21">
+      <c r="A2409" t="s">
+        <v>8199</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>8200</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>8215</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>8201</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>8202</v>
+      </c>
+      <c r="J2409" t="s">
+        <v>8220</v>
+      </c>
+      <c r="L2409" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:21">
+      <c r="A2410" t="s">
+        <v>8203</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>8204</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>8216</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>8205</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>8206</v>
+      </c>
+      <c r="J2410" t="s">
+        <v>8220</v>
+      </c>
+      <c r="L2410" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:21">
+      <c r="A2411" t="s">
+        <v>8207</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>8204</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>8217</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>8208</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>8209</v>
+      </c>
+      <c r="J2411" t="s">
+        <v>8220</v>
+      </c>
+      <c r="L2411" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:21">
+      <c r="A2412" t="s">
+        <v>8210</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>8204</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>8218</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>8211</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>8212</v>
+      </c>
+      <c r="G2412" t="s">
+        <v>8219</v>
+      </c>
+      <c r="H2412" t="s">
+        <v>8213</v>
+      </c>
+      <c r="I2412" t="s">
+        <v>8214</v>
+      </c>
+      <c r="J2412" t="s">
+        <v>8220</v>
+      </c>
+      <c r="L2412" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:U2408" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U2408">
